--- a/public/templates/발주서_양식.xlsx
+++ b/public/templates/발주서_양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\projects\dalreamarket.com\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C93F3E31-6F32-4291-8590-E653B6C32B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873269BC-B4B4-4C9F-87F2-2A6A41507098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="5565" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="발주서양식" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>김철수</t>
   </si>
   <si>
-    <t>010-8765-4321</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 123</t>
-  </si>
-  <si>
     <t>2025111122223333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +88,14 @@
   </si>
   <si>
     <t>권장 data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1234-5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 12345678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +516,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -553,30 +555,30 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -588,30 +590,30 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:F2 A1:F1 H1 J1:J2" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:D2 A1:F1 H1 J1:J2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/templates/발주서_양식.xlsx
+++ b/public/templates/발주서_양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\projects\dalreamarket.com\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873269BC-B4B4-4C9F-87F2-2A6A41507098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECE10A-689A-4365-B429-0FE1BE6F8664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="5565" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25050" yWindow="11205" windowWidth="22050" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="발주서양식" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>주소</t>
   </si>
   <si>
-    <t>옵션명</t>
-  </si>
-  <si>
     <t>수량</t>
   </si>
   <si>
@@ -96,6 +93,10 @@
   </si>
   <si>
     <t>서울시 강남구 테헤란로 12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +517,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -555,65 +556,65 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:D2 A1:F1 H1 J1:J2" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:D2 A1:F1 J1:J2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>